--- a/Industry/201612-201908/HKD/MILLION/Analysis_36_27 - Toys, Dolls and Games (SITC 894.2-4)_HKD_MILLION_201612-201908.xlsx
+++ b/Industry/201612-201908/HKD/MILLION/Analysis_36_27 - Toys, Dolls and Games (SITC 894.2-4)_HKD_MILLION_201612-201908.xlsx
@@ -3,7 +3,7 @@
 <workbook xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
   <workbookPr/>
   <bookViews>
-    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11316" windowWidth="19920" xWindow="1536" yWindow="1536"/>
+    <workbookView activeTab="0" autoFilterDateGrouping="1" firstSheet="0" minimized="0" showHorizontalScroll="1" showSheetTabs="1" showVerticalScroll="1" tabRatio="600" visibility="visible" windowHeight="11460" windowWidth="18480" xWindow="348" yWindow="360"/>
   </bookViews>
   <sheets>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="table1" sheetId="1" state="visible" r:id="rId1"/>
@@ -26,7 +26,8 @@
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyEuropeasOrigin" sheetId="18" state="visible" r:id="rId18"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="DXbyproduct" sheetId="19" state="visible" r:id="rId19"/>
     <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="TXbyproduct" sheetId="20" state="visible" r:id="rId20"/>
-    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="RXbyproduct" sheetId="21" state="visible" r:id="rId21"/>
+    <sheet xmlns:r="http://schemas.openxmlformats.org/officeDocument/2006/relationships" name="IMbyproduct" sheetId="22" state="visible" r:id="rId22"/>
   </sheets>
   <definedNames/>
   <calcPr calcId="124519" fullCalcOnLoad="1"/>
@@ -87,7 +88,7 @@
     <t>Re-exports Quantity</t>
   </si>
   <si>
-    <t>Imports by Origin Quantity</t>
+    <t>Imports Quantity</t>
   </si>
   <si>
     <t>201612_% Share of overall DX</t>
@@ -27596,6 +27597,521 @@
         <v>8</v>
       </c>
       <c r="J1" s="2" t="s">
+        <v>217</v>
+      </c>
+      <c r="K1" s="2" t="s">
+        <v>218</v>
+      </c>
+      <c r="L1" s="2" t="s">
+        <v>219</v>
+      </c>
+      <c r="M1" s="2" t="s">
+        <v>220</v>
+      </c>
+      <c r="N1" s="2" t="s">
+        <v>221</v>
+      </c>
+    </row>
+    <row r="2" spans="1:14">
+      <c r="A2" s="1" t="s">
+        <v>267</v>
+      </c>
+      <c r="B2" t="n">
+        <v>36854.852</v>
+      </c>
+      <c r="C2" t="n">
+        <v>48625.3</v>
+      </c>
+      <c r="D2" t="n">
+        <v>31.937</v>
+      </c>
+      <c r="E2" t="n">
+        <v>31975.536</v>
+      </c>
+      <c r="F2" t="n">
+        <v>48026.429</v>
+      </c>
+      <c r="G2" t="n">
+        <v>-1.232</v>
+      </c>
+      <c r="H2" t="n">
+        <v>23365.288</v>
+      </c>
+      <c r="I2" t="n">
+        <v>-26.928</v>
+      </c>
+      <c r="J2" t="n">
+        <v>100</v>
+      </c>
+      <c r="K2" t="n">
+        <v>100</v>
+      </c>
+      <c r="L2" t="n">
+        <v>100</v>
+      </c>
+      <c r="M2" t="n">
+        <v>100</v>
+      </c>
+      <c r="N2" t="n">
+        <v>100</v>
+      </c>
+    </row>
+    <row r="3" spans="1:14">
+      <c r="A3" s="1" t="s">
+        <v>268</v>
+      </c>
+      <c r="B3" t="n">
+        <v>25058.329</v>
+      </c>
+      <c r="C3" t="n">
+        <v>23011.097</v>
+      </c>
+      <c r="D3" t="n">
+        <v>-8.17</v>
+      </c>
+      <c r="E3" t="n">
+        <v>13579.359</v>
+      </c>
+      <c r="F3" t="n">
+        <v>20928.927</v>
+      </c>
+      <c r="G3" t="n">
+        <v>-9.048999999999999</v>
+      </c>
+      <c r="H3" t="n">
+        <v>12679.781</v>
+      </c>
+      <c r="I3" t="n">
+        <v>-6.625</v>
+      </c>
+      <c r="J3" t="n">
+        <v>67.992</v>
+      </c>
+      <c r="K3" t="n">
+        <v>47.323</v>
+      </c>
+      <c r="L3" t="n">
+        <v>42.468</v>
+      </c>
+      <c r="M3" t="n">
+        <v>43.578</v>
+      </c>
+      <c r="N3" t="n">
+        <v>54.268</v>
+      </c>
+    </row>
+    <row r="4" spans="1:14">
+      <c r="A4" s="1" t="s">
+        <v>270</v>
+      </c>
+      <c r="B4" t="n">
+        <v>2665.993</v>
+      </c>
+      <c r="C4" t="n">
+        <v>11156.998</v>
+      </c>
+      <c r="D4" t="n">
+        <v>318.493</v>
+      </c>
+      <c r="E4" t="n">
+        <v>10309.831</v>
+      </c>
+      <c r="F4" t="n">
+        <v>16080.592</v>
+      </c>
+      <c r="G4" t="n">
+        <v>44.13</v>
+      </c>
+      <c r="H4" t="n">
+        <v>6261.332</v>
+      </c>
+      <c r="I4" t="n">
+        <v>-39.268</v>
+      </c>
+      <c r="J4" t="n">
+        <v>7.234</v>
+      </c>
+      <c r="K4" t="n">
+        <v>22.945</v>
+      </c>
+      <c r="L4" t="n">
+        <v>32.243</v>
+      </c>
+      <c r="M4" t="n">
+        <v>33.483</v>
+      </c>
+      <c r="N4" t="n">
+        <v>26.798</v>
+      </c>
+    </row>
+    <row r="5" spans="1:14">
+      <c r="A5" s="1" t="s">
+        <v>271</v>
+      </c>
+      <c r="B5" t="n">
+        <v>5985.733</v>
+      </c>
+      <c r="C5" t="n">
+        <v>11424.784</v>
+      </c>
+      <c r="D5" t="n">
+        <v>90.867</v>
+      </c>
+      <c r="E5" t="n">
+        <v>6217.153</v>
+      </c>
+      <c r="F5" t="n">
+        <v>8422.067999999999</v>
+      </c>
+      <c r="G5" t="n">
+        <v>-26.282</v>
+      </c>
+      <c r="H5" t="n">
+        <v>2960.42</v>
+      </c>
+      <c r="I5" t="n">
+        <v>-52.383</v>
+      </c>
+      <c r="J5" t="n">
+        <v>16.241</v>
+      </c>
+      <c r="K5" t="n">
+        <v>23.496</v>
+      </c>
+      <c r="L5" t="n">
+        <v>19.443</v>
+      </c>
+      <c r="M5" t="n">
+        <v>17.536</v>
+      </c>
+      <c r="N5" t="n">
+        <v>12.67</v>
+      </c>
+    </row>
+    <row r="6" spans="1:14">
+      <c r="A6" s="1" t="s">
+        <v>272</v>
+      </c>
+      <c r="B6" t="n">
+        <v>1816.553</v>
+      </c>
+      <c r="C6" t="n">
+        <v>1909.405</v>
+      </c>
+      <c r="D6" t="n">
+        <v>5.111</v>
+      </c>
+      <c r="E6" t="n">
+        <v>1184.174</v>
+      </c>
+      <c r="F6" t="n">
+        <v>1658.842</v>
+      </c>
+      <c r="G6" t="n">
+        <v>-13.123</v>
+      </c>
+      <c r="H6" t="n">
+        <v>848.495</v>
+      </c>
+      <c r="I6" t="n">
+        <v>-28.347</v>
+      </c>
+      <c r="J6" t="n">
+        <v>4.929</v>
+      </c>
+      <c r="K6" t="n">
+        <v>3.927</v>
+      </c>
+      <c r="L6" t="n">
+        <v>3.703</v>
+      </c>
+      <c r="M6" t="n">
+        <v>3.454</v>
+      </c>
+      <c r="N6" t="n">
+        <v>3.631</v>
+      </c>
+    </row>
+    <row r="7" spans="1:14">
+      <c r="A7" s="1" t="s">
+        <v>273</v>
+      </c>
+      <c r="B7" t="n">
+        <v>519.304</v>
+      </c>
+      <c r="C7" t="n">
+        <v>429.781</v>
+      </c>
+      <c r="D7" t="n">
+        <v>-17.239</v>
+      </c>
+      <c r="E7" t="n">
+        <v>312.14</v>
+      </c>
+      <c r="F7" t="n">
+        <v>414.572</v>
+      </c>
+      <c r="G7" t="n">
+        <v>-3.539</v>
+      </c>
+      <c r="H7" t="n">
+        <v>293.889</v>
+      </c>
+      <c r="I7" t="n">
+        <v>-5.847</v>
+      </c>
+      <c r="J7" t="n">
+        <v>1.409</v>
+      </c>
+      <c r="K7" t="n">
+        <v>0.884</v>
+      </c>
+      <c r="L7" t="n">
+        <v>0.976</v>
+      </c>
+      <c r="M7" t="n">
+        <v>0.863</v>
+      </c>
+      <c r="N7" t="n">
+        <v>1.258</v>
+      </c>
+    </row>
+    <row r="8" spans="1:14">
+      <c r="A8" s="1" t="s">
+        <v>269</v>
+      </c>
+      <c r="B8" t="n">
+        <v>676.965</v>
+      </c>
+      <c r="C8" t="n">
+        <v>550.477</v>
+      </c>
+      <c r="D8" t="n">
+        <v>-18.685</v>
+      </c>
+      <c r="E8" t="n">
+        <v>319.853</v>
+      </c>
+      <c r="F8" t="n">
+        <v>438.927</v>
+      </c>
+      <c r="G8" t="n">
+        <v>-20.264</v>
+      </c>
+      <c r="H8" t="n">
+        <v>277.515</v>
+      </c>
+      <c r="I8" t="n">
+        <v>-13.237</v>
+      </c>
+      <c r="J8" t="n">
+        <v>1.837</v>
+      </c>
+      <c r="K8" t="n">
+        <v>1.132</v>
+      </c>
+      <c r="L8" t="n">
+        <v>1</v>
+      </c>
+      <c r="M8" t="n">
+        <v>0.914</v>
+      </c>
+      <c r="N8" t="n">
+        <v>1.188</v>
+      </c>
+    </row>
+    <row r="9" spans="1:14">
+      <c r="A9" s="1" t="s">
+        <v>274</v>
+      </c>
+      <c r="B9" t="n">
+        <v>19.532</v>
+      </c>
+      <c r="C9" t="n">
+        <v>27.427</v>
+      </c>
+      <c r="D9" t="n">
+        <v>40.421</v>
+      </c>
+      <c r="E9" t="n">
+        <v>11.276</v>
+      </c>
+      <c r="F9" t="n">
+        <v>22.307</v>
+      </c>
+      <c r="G9" t="n">
+        <v>-18.668</v>
+      </c>
+      <c r="H9" t="n">
+        <v>20.96</v>
+      </c>
+      <c r="I9" t="n">
+        <v>85.887</v>
+      </c>
+      <c r="J9" t="n">
+        <v>0.053</v>
+      </c>
+      <c r="K9" t="n">
+        <v>0.056</v>
+      </c>
+      <c r="L9" t="n">
+        <v>0.035</v>
+      </c>
+      <c r="M9" t="n">
+        <v>0.046</v>
+      </c>
+      <c r="N9" t="n">
+        <v>0.09</v>
+      </c>
+    </row>
+    <row r="10" spans="1:14">
+      <c r="A10" s="1" t="s">
+        <v>275</v>
+      </c>
+      <c r="B10" t="n">
+        <v>36.949</v>
+      </c>
+      <c r="C10" t="n">
+        <v>28.555</v>
+      </c>
+      <c r="D10" t="n">
+        <v>-22.718</v>
+      </c>
+      <c r="E10" t="n">
+        <v>32.413</v>
+      </c>
+      <c r="F10" t="n">
+        <v>40.136</v>
+      </c>
+      <c r="G10" t="n">
+        <v>40.558</v>
+      </c>
+      <c r="H10" t="n">
+        <v>14.488</v>
+      </c>
+      <c r="I10" t="n">
+        <v>-55.301</v>
+      </c>
+      <c r="J10" t="n">
+        <v>0.1</v>
+      </c>
+      <c r="K10" t="n">
+        <v>0.059</v>
+      </c>
+      <c r="L10" t="n">
+        <v>0.101</v>
+      </c>
+      <c r="M10" t="n">
+        <v>0.08400000000000001</v>
+      </c>
+      <c r="N10" t="n">
+        <v>0.062</v>
+      </c>
+    </row>
+    <row r="11" spans="1:14">
+      <c r="A11" s="1" t="s">
+        <v>276</v>
+      </c>
+      <c r="B11" t="n">
+        <v>75.494</v>
+      </c>
+      <c r="C11" t="n">
+        <v>86.776</v>
+      </c>
+      <c r="D11" t="n">
+        <v>14.946</v>
+      </c>
+      <c r="E11" t="n">
+        <v>9.337999999999999</v>
+      </c>
+      <c r="F11" t="n">
+        <v>20.059</v>
+      </c>
+      <c r="G11" t="n">
+        <v>-76.884</v>
+      </c>
+      <c r="H11" t="n">
+        <v>8.407999999999999</v>
+      </c>
+      <c r="I11" t="n">
+        <v>-9.958</v>
+      </c>
+      <c r="J11" t="n">
+        <v>0.205</v>
+      </c>
+      <c r="K11" t="n">
+        <v>0.178</v>
+      </c>
+      <c r="L11" t="n">
+        <v>0.029</v>
+      </c>
+      <c r="M11" t="n">
+        <v>0.042</v>
+      </c>
+      <c r="N11" t="n">
+        <v>0.036</v>
+      </c>
+    </row>
+  </sheetData>
+  <pageMargins bottom="0.75" footer="0.3" header="0.3" left="0.7" right="0.7" top="0.75"/>
+</worksheet>
+</file>
+
+<file path=xl/worksheets/sheet22.xml><?xml version="1.0" encoding="utf-8"?>
+<worksheet xmlns="http://schemas.openxmlformats.org/spreadsheetml/2006/main">
+  <sheetPr>
+    <outlinePr summaryBelow="1" summaryRight="1"/>
+    <pageSetUpPr/>
+  </sheetPr>
+  <dimension ref="A1:N11"/>
+  <sheetViews>
+    <sheetView workbookViewId="0">
+      <pane activePane="bottomRight" state="frozen" topLeftCell="B2" xSplit="1" ySplit="1"/>
+      <selection pane="topRight"/>
+      <selection pane="bottomLeft"/>
+      <selection activeCell="A1" pane="bottomRight" sqref="A1"/>
+    </sheetView>
+  </sheetViews>
+  <sheetFormatPr baseColWidth="8" defaultRowHeight="14.4" outlineLevelCol="0"/>
+  <cols>
+    <col bestFit="1" customWidth="1" max="1" min="1" width="6.33203125"/>
+    <col bestFit="1" customWidth="1" max="3" min="2" width="10"/>
+    <col bestFit="1" customWidth="1" max="4" min="4" width="8"/>
+    <col bestFit="1" customWidth="1" max="6" min="5" width="10"/>
+    <col bestFit="1" customWidth="1" max="7" min="7" width="8"/>
+    <col bestFit="1" customWidth="1" max="8" min="8" width="10"/>
+    <col bestFit="1" customWidth="1" max="9" min="9" width="8"/>
+  </cols>
+  <sheetData>
+    <row customFormat="1" customHeight="1" ht="57.6" r="1" s="3" spans="1:14">
+      <c r="A1" s="2" t="s">
+        <v>266</v>
+      </c>
+      <c r="B1" s="2" t="s">
+        <v>1</v>
+      </c>
+      <c r="C1" s="2" t="s">
+        <v>2</v>
+      </c>
+      <c r="D1" s="2" t="s">
+        <v>3</v>
+      </c>
+      <c r="E1" s="2" t="s">
+        <v>4</v>
+      </c>
+      <c r="F1" s="2" t="s">
+        <v>5</v>
+      </c>
+      <c r="G1" s="2" t="s">
+        <v>6</v>
+      </c>
+      <c r="H1" s="2" t="s">
+        <v>7</v>
+      </c>
+      <c r="I1" s="2" t="s">
+        <v>8</v>
+      </c>
+      <c r="J1" s="2" t="s">
         <v>222</v>
       </c>
       <c r="K1" s="2" t="s">
